--- a/templates/template-mahnung_deu_v2.11.xlsx
+++ b/templates/template-mahnung_deu_v2.11.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0e04076db59a41c7/^NDatenbank^N/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\eclipse.workspace\facturaX\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{C03379A9-C320-4BE0-B157-228A3ED637AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D479DE32-E6B3-4EAD-B6E3-DB257770F46F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54CE6288-10C3-4A27-9A5C-D490B02B5FA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{B183A5AF-6DC4-46B2-AF21-F182EA3F3214}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t xml:space="preserve">DATUM:   </t>
   </si>
@@ -65,30 +65,6 @@
     <t>{Sender}</t>
   </si>
   <si>
-    <t>{B16}</t>
-  </si>
-  <si>
-    <t>{B18}</t>
-  </si>
-  <si>
-    <t>{B20}</t>
-  </si>
-  <si>
-    <t>{B21}</t>
-  </si>
-  <si>
-    <t>{B22}</t>
-  </si>
-  <si>
-    <t>{B23}</t>
-  </si>
-  <si>
-    <t>{B26}</t>
-  </si>
-  <si>
-    <t>{B27}</t>
-  </si>
-  <si>
     <t>{Bank}</t>
   </si>
   <si>
@@ -99,6 +75,27 @@
   </si>
   <si>
     <t>{Recipient}</t>
+  </si>
+  <si>
+    <t>{Betreff}</t>
+  </si>
+  <si>
+    <t>{Grund}</t>
+  </si>
+  <si>
+    <t>{Satz2}</t>
+  </si>
+  <si>
+    <t>{Gruß}</t>
+  </si>
+  <si>
+    <t>{Name}</t>
+  </si>
+  <si>
+    <t>{Anrede}</t>
+  </si>
+  <si>
+    <t>{Satz1}</t>
   </si>
 </sst>
 </file>
@@ -477,6 +474,9 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -527,9 +527,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -557,10 +554,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -885,8 +878,8 @@
   </sheetPr>
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B9"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A9" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23:G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -901,10 +894,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="28"/>
+      <c r="B1" s="29"/>
       <c r="C1" s="21" t="s">
         <v>6</v>
       </c>
@@ -938,64 +931,64 @@
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="39" t="s">
-        <v>20</v>
+      <c r="B5" s="22" t="s">
+        <v>12</v>
       </c>
       <c r="C5" s="5"/>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="23"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="22"/>
+      <c r="B6" s="23"/>
       <c r="C6" s="6"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="22"/>
+      <c r="B7" s="23"/>
       <c r="C7" s="6"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
     </row>
     <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="22"/>
+      <c r="B8" s="23"/>
       <c r="C8" s="7"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
     </row>
     <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="22"/>
+      <c r="B9" s="23"/>
       <c r="C9" s="7"/>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="23"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
     </row>
     <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="C10" s="7"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="26" t="s">
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="26"/>
+      <c r="G10" s="27"/>
     </row>
     <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
@@ -1031,158 +1024,156 @@
     </row>
     <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
     </row>
     <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="33"/>
+      <c r="B16" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="34"/>
     </row>
     <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
     </row>
     <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
+      <c r="B18" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
     </row>
     <row r="19" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
     </row>
     <row r="20" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
+      <c r="B20" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
     </row>
     <row r="21" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
+      <c r="B21" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
     </row>
     <row r="22" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
+      <c r="B22" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
     </row>
     <row r="23" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
     </row>
     <row r="24" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
     </row>
     <row r="25" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
+      <c r="B25" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
     </row>
     <row r="26" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
+      <c r="B26" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
     </row>
     <row r="27" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
     </row>
     <row r="28" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
     </row>
     <row r="29" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="37"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
     </row>
     <row r="30" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="38"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
       <c r="E30" s="12"/>
       <c r="F30" s="13"/>
     </row>
     <row r="31" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="38"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="39"/>
       <c r="E31" s="14"/>
       <c r="F31" s="15"/>
     </row>
     <row r="32" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="38"/>
-      <c r="C32" s="38"/>
-      <c r="D32" s="38"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
       <c r="E32" s="16"/>
       <c r="F32" s="17"/>
     </row>
@@ -1226,37 +1217,37 @@
       <c r="F45" s="18"/>
     </row>
     <row r="47" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C47" s="35" t="s">
+      <c r="C47" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="D47" s="35"/>
-      <c r="E47" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="F47" s="36"/>
-      <c r="G47" s="36"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="F47" s="37"/>
+      <c r="G47" s="37"/>
     </row>
     <row r="48" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C48" s="35" t="s">
+      <c r="C48" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="D48" s="35"/>
-      <c r="E48" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="F48" s="36"/>
-      <c r="G48" s="36"/>
+      <c r="D48" s="36"/>
+      <c r="E48" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="F48" s="37"/>
+      <c r="G48" s="37"/>
     </row>
     <row r="49" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C49" s="35" t="s">
+      <c r="C49" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="D49" s="35"/>
-      <c r="E49" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="F49" s="36"/>
-      <c r="G49" s="36"/>
+      <c r="D49" s="36"/>
+      <c r="E49" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49" s="37"/>
+      <c r="G49" s="37"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
